--- a/data/pca/factorExposure/factorExposure_2018-09-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03702325381302015</v>
+        <v>-0.03023712937874669</v>
       </c>
       <c r="C2">
-        <v>-0.04712359660918403</v>
+        <v>-0.01175905428057736</v>
       </c>
       <c r="D2">
-        <v>-0.03624245830156186</v>
+        <v>-0.01136021051110579</v>
       </c>
       <c r="E2">
-        <v>0.05330244406189626</v>
+        <v>0.01377226815252004</v>
       </c>
       <c r="F2">
-        <v>-0.1399452064298075</v>
+        <v>0.02306271236053943</v>
       </c>
       <c r="G2">
-        <v>-0.09444807394615751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07717320954984312</v>
+      </c>
+      <c r="H2">
+        <v>0.01840975209231985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1241877748177055</v>
+        <v>-0.07727605427113209</v>
       </c>
       <c r="C3">
-        <v>-0.0219852547458286</v>
+        <v>0.02224553808532359</v>
       </c>
       <c r="D3">
-        <v>-0.03984150428011356</v>
+        <v>-0.0199967556766079</v>
       </c>
       <c r="E3">
-        <v>0.09661285312122403</v>
+        <v>0.008531403778275739</v>
       </c>
       <c r="F3">
-        <v>-0.3890818017601376</v>
+        <v>-0.006421961827484241</v>
       </c>
       <c r="G3">
-        <v>-0.2434126618843681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2638463675698369</v>
+      </c>
+      <c r="H3">
+        <v>0.04611386368830396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04721006769200552</v>
+        <v>-0.04636932390608854</v>
       </c>
       <c r="C4">
-        <v>-0.0382643189458976</v>
+        <v>0.001157286062770361</v>
       </c>
       <c r="D4">
-        <v>0.001171888116424555</v>
+        <v>-0.0272797614897613</v>
       </c>
       <c r="E4">
-        <v>0.06517417796640211</v>
+        <v>-0.02205058020465058</v>
       </c>
       <c r="F4">
-        <v>-0.06516615941883847</v>
+        <v>0.06029571627784814</v>
       </c>
       <c r="G4">
-        <v>-0.06392995278655181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04448147614418982</v>
+      </c>
+      <c r="H4">
+        <v>0.02920971935242113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0115706911864402</v>
+        <v>-0.02998652644680454</v>
       </c>
       <c r="C6">
-        <v>-0.001608566629839493</v>
+        <v>0.000202118367923828</v>
       </c>
       <c r="D6">
-        <v>-0.01136414275139475</v>
+        <v>-0.03384620678417524</v>
       </c>
       <c r="E6">
-        <v>0.008787149975053575</v>
+        <v>-0.006130382641612495</v>
       </c>
       <c r="F6">
-        <v>-0.01183519094298389</v>
+        <v>0.03704059709671778</v>
       </c>
       <c r="G6">
-        <v>0.01902909613410735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01299846224602639</v>
+      </c>
+      <c r="H6">
+        <v>0.05264214724397003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02574510035661659</v>
+        <v>-0.02057426836237598</v>
       </c>
       <c r="C7">
-        <v>-0.01899338226594747</v>
+        <v>-0.0002467853599866495</v>
       </c>
       <c r="D7">
-        <v>-0.02975059064279541</v>
+        <v>-0.01529817594615032</v>
       </c>
       <c r="E7">
-        <v>0.03643572804545459</v>
+        <v>-0.03629430863606613</v>
       </c>
       <c r="F7">
-        <v>-0.07101485604060372</v>
+        <v>0.02295893594591565</v>
       </c>
       <c r="G7">
-        <v>-0.05423807842562343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03268665147027293</v>
+      </c>
+      <c r="H7">
+        <v>0.01652121554850222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009612451207199568</v>
+        <v>-0.001217389667192595</v>
       </c>
       <c r="C8">
-        <v>-0.01133729685140786</v>
+        <v>0.0006811662591210994</v>
       </c>
       <c r="D8">
-        <v>0.004457093179219007</v>
+        <v>-0.008932811544628393</v>
       </c>
       <c r="E8">
-        <v>0.07073347676185726</v>
+        <v>-0.01308722835029205</v>
       </c>
       <c r="F8">
-        <v>-0.0909027502996427</v>
+        <v>0.02499376574055214</v>
       </c>
       <c r="G8">
-        <v>-0.06364693364873783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05108476504889563</v>
+      </c>
+      <c r="H8">
+        <v>0.00987461733075347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03938601707282496</v>
+        <v>-0.03628537927754226</v>
       </c>
       <c r="C9">
-        <v>-0.0333788318610956</v>
+        <v>0.003918368842092032</v>
       </c>
       <c r="D9">
-        <v>0.01521126613562365</v>
+        <v>-0.0226775217805372</v>
       </c>
       <c r="E9">
-        <v>0.06807085185526865</v>
+        <v>-0.01992372953665751</v>
       </c>
       <c r="F9">
-        <v>-0.06811754407911787</v>
+        <v>0.03813706761287822</v>
       </c>
       <c r="G9">
-        <v>-0.04718523023036394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05629636162791971</v>
+      </c>
+      <c r="H9">
+        <v>0.02870568793029122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.06060968305629005</v>
+        <v>-0.08800302935417038</v>
       </c>
       <c r="C10">
-        <v>-0.05134394428988962</v>
+        <v>0.04178235406218415</v>
       </c>
       <c r="D10">
-        <v>0.02287550224404318</v>
+        <v>0.1450998333716243</v>
       </c>
       <c r="E10">
-        <v>-0.1165434988863008</v>
+        <v>0.02064617001486746</v>
       </c>
       <c r="F10">
-        <v>-0.05161055003663105</v>
+        <v>-0.08148564209324545</v>
       </c>
       <c r="G10">
-        <v>0.003286235154010346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02718793404703575</v>
+      </c>
+      <c r="H10">
+        <v>0.004560838068564538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03114424826847458</v>
+        <v>-0.02162768281275688</v>
       </c>
       <c r="C11">
-        <v>-0.0119351282532828</v>
+        <v>0.01079341657706274</v>
       </c>
       <c r="D11">
-        <v>-0.01584868517639914</v>
+        <v>-0.03132845712667488</v>
       </c>
       <c r="E11">
-        <v>0.03323835911662908</v>
+        <v>0.003090881138883219</v>
       </c>
       <c r="F11">
-        <v>-0.03890115924482547</v>
+        <v>0.02392949238082325</v>
       </c>
       <c r="G11">
-        <v>-0.01888418946260654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03345911670407296</v>
+      </c>
+      <c r="H11">
+        <v>0.02890119345472858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0384213488274088</v>
+        <v>-0.03027072125274154</v>
       </c>
       <c r="C12">
-        <v>-0.01343296427972043</v>
+        <v>0.01012763272728057</v>
       </c>
       <c r="D12">
-        <v>-0.002936643898539275</v>
+        <v>-0.03037842886876066</v>
       </c>
       <c r="E12">
-        <v>0.0459931961472437</v>
+        <v>-0.007917295886536063</v>
       </c>
       <c r="F12">
-        <v>-0.01949998970617685</v>
+        <v>0.02734631175845803</v>
       </c>
       <c r="G12">
-        <v>-0.01542861604687633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.009965157849189617</v>
+      </c>
+      <c r="H12">
+        <v>0.01572069495858313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01740430730230312</v>
+        <v>-0.0247335282114926</v>
       </c>
       <c r="C13">
-        <v>-0.02378262393582204</v>
+        <v>-0.01104665291487446</v>
       </c>
       <c r="D13">
-        <v>-0.0347664462308423</v>
+        <v>-0.002738809421402252</v>
       </c>
       <c r="E13">
-        <v>0.02166931979747598</v>
+        <v>0.01583092581012852</v>
       </c>
       <c r="F13">
-        <v>-0.08570755170057538</v>
+        <v>0.0218414910230461</v>
       </c>
       <c r="G13">
-        <v>-0.05048369876353324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06123764814463403</v>
+      </c>
+      <c r="H13">
+        <v>0.02746165067665317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01022757243579684</v>
+        <v>-0.01542428518937934</v>
       </c>
       <c r="C14">
-        <v>-0.02268022287933563</v>
+        <v>0.001790819634991217</v>
       </c>
       <c r="D14">
-        <v>-0.002682934794416702</v>
+        <v>0.0006476793338130559</v>
       </c>
       <c r="E14">
-        <v>0.03636331019958628</v>
+        <v>-0.008328729834658984</v>
       </c>
       <c r="F14">
-        <v>-0.0714257896017136</v>
+        <v>0.02479407253223627</v>
       </c>
       <c r="G14">
-        <v>-0.0588927685711634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04191307207570992</v>
+      </c>
+      <c r="H14">
+        <v>-0.01749987818226957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02432934829919708</v>
+        <v>-0.02270271634258316</v>
       </c>
       <c r="C16">
-        <v>-0.01216950233781718</v>
+        <v>0.01133631875999733</v>
       </c>
       <c r="D16">
-        <v>-0.01301644676201805</v>
+        <v>-0.02690364067977933</v>
       </c>
       <c r="E16">
-        <v>0.03250248615014775</v>
+        <v>-0.001810952402665513</v>
       </c>
       <c r="F16">
-        <v>-0.04033757152882893</v>
+        <v>0.02444469386596962</v>
       </c>
       <c r="G16">
-        <v>-0.02369987067752372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02831828237073079</v>
+      </c>
+      <c r="H16">
+        <v>0.02296282235741207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03525991193909519</v>
+        <v>-0.03328244448876493</v>
       </c>
       <c r="C19">
-        <v>-0.01608196287838034</v>
+        <v>0.004474296408410536</v>
       </c>
       <c r="D19">
-        <v>-0.0222522753119907</v>
+        <v>-0.008868899929521615</v>
       </c>
       <c r="E19">
-        <v>0.044740642240049</v>
+        <v>0.001583544456013875</v>
       </c>
       <c r="F19">
-        <v>-0.0984955334354035</v>
+        <v>0.03216829688281393</v>
       </c>
       <c r="G19">
-        <v>-0.06041648074507339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06509182475460426</v>
+      </c>
+      <c r="H19">
+        <v>0.04084242038117948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006515798826308243</v>
+        <v>-0.006790326164130528</v>
       </c>
       <c r="C20">
-        <v>-0.0229260715501692</v>
+        <v>-0.00677786200962552</v>
       </c>
       <c r="D20">
-        <v>-0.007393709683063127</v>
+        <v>-0.0002684609851285945</v>
       </c>
       <c r="E20">
-        <v>0.02834511405779856</v>
+        <v>-0.001734802524968922</v>
       </c>
       <c r="F20">
-        <v>-0.06856908490194513</v>
+        <v>0.0172716815174097</v>
       </c>
       <c r="G20">
-        <v>-0.05876712849764366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04979186699901254</v>
+      </c>
+      <c r="H20">
+        <v>-0.007922846688713864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003345419614043814</v>
+        <v>-0.02060274266177747</v>
       </c>
       <c r="C21">
-        <v>0.001566581662496895</v>
+        <v>-0.004215264156682893</v>
       </c>
       <c r="D21">
-        <v>-0.00398232051542071</v>
+        <v>0.0001785552975787524</v>
       </c>
       <c r="E21">
-        <v>0.02988574849505924</v>
+        <v>-0.01272426942551566</v>
       </c>
       <c r="F21">
-        <v>-0.08151501611016085</v>
+        <v>0.007106021892808967</v>
       </c>
       <c r="G21">
-        <v>-0.01853540761300026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05198984686564653</v>
+      </c>
+      <c r="H21">
+        <v>0.01008144869925923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02662109907537831</v>
+        <v>-0.02168975512625799</v>
       </c>
       <c r="C24">
-        <v>-0.0131064015612504</v>
+        <v>0.005886692493636135</v>
       </c>
       <c r="D24">
-        <v>-0.009850105774910033</v>
+        <v>-0.0272873464343584</v>
       </c>
       <c r="E24">
-        <v>0.02489222364173171</v>
+        <v>-0.001803058850508957</v>
       </c>
       <c r="F24">
-        <v>-0.03866709403795555</v>
+        <v>0.02095674308599589</v>
       </c>
       <c r="G24">
-        <v>-0.01142966641303007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02692565469524714</v>
+      </c>
+      <c r="H24">
+        <v>0.02847107638191448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02941634444321368</v>
+        <v>-0.03268528060543919</v>
       </c>
       <c r="C25">
-        <v>-0.01116331692269681</v>
+        <v>0.005818195015430748</v>
       </c>
       <c r="D25">
-        <v>-0.0079849067918912</v>
+        <v>-0.02220850722550232</v>
       </c>
       <c r="E25">
-        <v>0.03178871596424703</v>
+        <v>-0.002244499473082148</v>
       </c>
       <c r="F25">
-        <v>-0.03692769933070406</v>
+        <v>0.02547913641821742</v>
       </c>
       <c r="G25">
-        <v>-0.004519851073852045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03146656129170135</v>
+      </c>
+      <c r="H25">
+        <v>0.03069289747426681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01826214887015618</v>
+        <v>-0.01927315185455606</v>
       </c>
       <c r="C26">
-        <v>-0.001504241514446966</v>
+        <v>-0.01578739612936152</v>
       </c>
       <c r="D26">
-        <v>-0.03517202680358523</v>
+        <v>-0.003207422535323557</v>
       </c>
       <c r="E26">
-        <v>0.03785007294077719</v>
+        <v>0.006041291256651731</v>
       </c>
       <c r="F26">
-        <v>-0.05635800992228671</v>
+        <v>0.005927355687847569</v>
       </c>
       <c r="G26">
-        <v>-0.03418895064033346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03581053011514175</v>
+      </c>
+      <c r="H26">
+        <v>-0.001070057218313832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07324897792494274</v>
+        <v>-0.03211236209219502</v>
       </c>
       <c r="C27">
-        <v>-0.05279704780819797</v>
+        <v>0.01678765259337673</v>
       </c>
       <c r="D27">
-        <v>0.0003546504428066328</v>
+        <v>-0.006198811770719024</v>
       </c>
       <c r="E27">
-        <v>0.05564269632282054</v>
+        <v>-0.004218468897673322</v>
       </c>
       <c r="F27">
-        <v>-0.06214578982819797</v>
+        <v>0.02581440364679402</v>
       </c>
       <c r="G27">
-        <v>-0.06109998081723025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02792376609058506</v>
+      </c>
+      <c r="H27">
+        <v>-0.0001400517621886988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08607219621413559</v>
+        <v>-0.1344296024769596</v>
       </c>
       <c r="C28">
-        <v>-0.06599558918818511</v>
+        <v>0.04952681724493541</v>
       </c>
       <c r="D28">
-        <v>0.04107625276548797</v>
+        <v>0.2128672367676337</v>
       </c>
       <c r="E28">
-        <v>-0.1776083776607681</v>
+        <v>0.02607261553666768</v>
       </c>
       <c r="F28">
-        <v>-0.06211238154954182</v>
+        <v>-0.1111038818203688</v>
       </c>
       <c r="G28">
-        <v>-0.02889610742486662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007642630942301241</v>
+      </c>
+      <c r="H28">
+        <v>-0.008063473540768053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01733490540975259</v>
+        <v>-0.01970862660410316</v>
       </c>
       <c r="C29">
-        <v>-0.02469998011942662</v>
+        <v>0.004377172497660544</v>
       </c>
       <c r="D29">
-        <v>0.003673737326636452</v>
+        <v>-0.001817249763807151</v>
       </c>
       <c r="E29">
-        <v>0.05670297101180161</v>
+        <v>-0.01052997649397977</v>
       </c>
       <c r="F29">
-        <v>-0.05159701615949243</v>
+        <v>0.02808233480554971</v>
       </c>
       <c r="G29">
-        <v>-0.05911033563030038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03372074570180784</v>
+      </c>
+      <c r="H29">
+        <v>-0.01918156098303145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07953543073520576</v>
+        <v>-0.05397681297162455</v>
       </c>
       <c r="C30">
-        <v>-0.0585818897222344</v>
+        <v>0.003149601038570768</v>
       </c>
       <c r="D30">
-        <v>-0.03512138248062185</v>
+        <v>-0.05158040007300898</v>
       </c>
       <c r="E30">
-        <v>0.09344998287920318</v>
+        <v>0.0328282716993956</v>
       </c>
       <c r="F30">
-        <v>-0.05359232070740377</v>
+        <v>0.07899208305947482</v>
       </c>
       <c r="G30">
-        <v>-0.02365901919931397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06173703853964026</v>
+      </c>
+      <c r="H30">
+        <v>0.03924761152148497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05931995780083327</v>
+        <v>-0.05299165098620131</v>
       </c>
       <c r="C31">
-        <v>-0.02028886358164659</v>
+        <v>0.02112796237869686</v>
       </c>
       <c r="D31">
-        <v>-0.04770916267428264</v>
+        <v>-0.0217475995831134</v>
       </c>
       <c r="E31">
-        <v>0.03881594702894911</v>
+        <v>0.009169850666781349</v>
       </c>
       <c r="F31">
-        <v>-0.0381648649812591</v>
+        <v>0.02262291005387008</v>
       </c>
       <c r="G31">
-        <v>-0.08479901485774687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02102730986198874</v>
+      </c>
+      <c r="H31">
+        <v>-0.01413476261888233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01330690521119761</v>
+        <v>-0.008485194635766632</v>
       </c>
       <c r="C32">
-        <v>-0.02460046442947887</v>
+        <v>0.01571231594952264</v>
       </c>
       <c r="D32">
-        <v>0.001145864846781466</v>
+        <v>0.008647348501980748</v>
       </c>
       <c r="E32">
-        <v>0.06855289297943808</v>
+        <v>-0.01914711421514366</v>
       </c>
       <c r="F32">
-        <v>-0.06961885914890159</v>
+        <v>0.04208278451194428</v>
       </c>
       <c r="G32">
-        <v>-0.04175322638732325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04964099881939429</v>
+      </c>
+      <c r="H32">
+        <v>0.04343043839750845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04938627469224185</v>
+        <v>-0.03805444558439808</v>
       </c>
       <c r="C33">
-        <v>-0.004964198454265514</v>
+        <v>0.004854518243454856</v>
       </c>
       <c r="D33">
-        <v>-0.04589004137155402</v>
+        <v>-0.02901431076915327</v>
       </c>
       <c r="E33">
-        <v>0.06516070908833238</v>
+        <v>0.02217332142141129</v>
       </c>
       <c r="F33">
-        <v>-0.09317014090514429</v>
+        <v>0.01534441140126442</v>
       </c>
       <c r="G33">
-        <v>-0.04246024588366536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05779803873615039</v>
+      </c>
+      <c r="H33">
+        <v>0.01840244743471707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02928214596514476</v>
+        <v>-0.02575833858851476</v>
       </c>
       <c r="C34">
-        <v>-0.01709692905585325</v>
+        <v>0.02021642733619392</v>
       </c>
       <c r="D34">
-        <v>-0.01249425181823349</v>
+        <v>-0.02660451709847306</v>
       </c>
       <c r="E34">
-        <v>0.03974212971502628</v>
+        <v>-0.006243803201860588</v>
       </c>
       <c r="F34">
-        <v>-0.04356239372851859</v>
+        <v>0.02670114735565529</v>
       </c>
       <c r="G34">
-        <v>-0.01228888734660306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02672617299197278</v>
+      </c>
+      <c r="H34">
+        <v>0.02622305860271132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01345543584616363</v>
+        <v>-0.01884426258941728</v>
       </c>
       <c r="C36">
-        <v>-0.01167088508053078</v>
+        <v>-0.002085434304006237</v>
       </c>
       <c r="D36">
-        <v>-0.002128901193322536</v>
+        <v>0.003406218663371714</v>
       </c>
       <c r="E36">
-        <v>0.02510233444478725</v>
+        <v>-0.002421768634594347</v>
       </c>
       <c r="F36">
-        <v>-0.02910952561474371</v>
+        <v>0.00685671475229082</v>
       </c>
       <c r="G36">
-        <v>-0.03479064416463781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01853723509191717</v>
+      </c>
+      <c r="H36">
+        <v>-0.004174666779124709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.008653996621484771</v>
+        <v>-0.01656059887618112</v>
       </c>
       <c r="C38">
-        <v>0.000893551180860524</v>
+        <v>0.01767045024949142</v>
       </c>
       <c r="D38">
-        <v>0.01192880930211139</v>
+        <v>0.003852662352457484</v>
       </c>
       <c r="E38">
-        <v>-0.005700155377992326</v>
+        <v>-0.005791406814107845</v>
       </c>
       <c r="F38">
-        <v>-0.001415751548466942</v>
+        <v>0.007803931358683876</v>
       </c>
       <c r="G38">
-        <v>0.002488134840879272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02576349443543406</v>
+      </c>
+      <c r="H38">
+        <v>0.02107365054567662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.037067360018427</v>
+        <v>-0.02319953282304639</v>
       </c>
       <c r="C39">
-        <v>-0.02297717474602985</v>
+        <v>0.00394902279504084</v>
       </c>
       <c r="D39">
-        <v>-0.02967013935067617</v>
+        <v>-0.06381904939836355</v>
       </c>
       <c r="E39">
-        <v>0.03937140559890386</v>
+        <v>0.0007298219016736716</v>
       </c>
       <c r="F39">
-        <v>-0.04753572946714286</v>
+        <v>0.0457472713631941</v>
       </c>
       <c r="G39">
-        <v>-0.0142754025342273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05366407099227577</v>
+      </c>
+      <c r="H39">
+        <v>0.05196751809894682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02870343062135968</v>
+        <v>-0.02696329216304495</v>
       </c>
       <c r="C40">
-        <v>-0.0380580912681583</v>
+        <v>0.003152018040706475</v>
       </c>
       <c r="D40">
-        <v>-0.05548175312762523</v>
+        <v>-0.0217547092848056</v>
       </c>
       <c r="E40">
-        <v>0.04079138363661452</v>
+        <v>0.01839919153045142</v>
       </c>
       <c r="F40">
-        <v>-0.08173920322020863</v>
+        <v>0.03810029313038549</v>
       </c>
       <c r="G40">
-        <v>-0.05672617037128459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03769840944307712</v>
+      </c>
+      <c r="H40">
+        <v>0.0465038859198083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00179132510643604</v>
+        <v>-0.007652517553849283</v>
       </c>
       <c r="C41">
-        <v>0.008958201401322738</v>
+        <v>-0.0006933931797610888</v>
       </c>
       <c r="D41">
-        <v>-0.006342413431957021</v>
+        <v>0.008961798612061691</v>
       </c>
       <c r="E41">
-        <v>0.01670509540704795</v>
+        <v>0.001504673134628096</v>
       </c>
       <c r="F41">
-        <v>-0.01981148351056085</v>
+        <v>-0.00587280838954513</v>
       </c>
       <c r="G41">
-        <v>-0.05574844761716551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008054406420487258</v>
+      </c>
+      <c r="H41">
+        <v>-0.01736995085595122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3933603606081054</v>
+        <v>-0.2175598905501503</v>
       </c>
       <c r="C42">
-        <v>0.8795868310634837</v>
+        <v>-0.08627185393312105</v>
       </c>
       <c r="D42">
-        <v>-0.1764845768801571</v>
+        <v>-0.5893913877756727</v>
       </c>
       <c r="E42">
-        <v>-0.09782007269540101</v>
+        <v>0.1290021057329167</v>
       </c>
       <c r="F42">
-        <v>0.02407530439511647</v>
+        <v>-0.7475638622789357</v>
       </c>
       <c r="G42">
-        <v>-0.004423857741513723</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07489106211646837</v>
+      </c>
+      <c r="H42">
+        <v>0.01354398848766522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008748198506036815</v>
+        <v>-0.004939529387059765</v>
       </c>
       <c r="C43">
-        <v>0.005336796476814173</v>
+        <v>-0.003321759709209995</v>
       </c>
       <c r="D43">
-        <v>-0.01057412574495741</v>
+        <v>0.01135698453424802</v>
       </c>
       <c r="E43">
-        <v>0.01740902679014493</v>
+        <v>0.005673461251742122</v>
       </c>
       <c r="F43">
-        <v>-0.03727458882301915</v>
+        <v>-0.01048435966380317</v>
       </c>
       <c r="G43">
-        <v>-0.05353238368536381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01583825746900168</v>
+      </c>
+      <c r="H43">
+        <v>-0.009295226889965237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0189516091393302</v>
+        <v>-0.01241133606209767</v>
       </c>
       <c r="C44">
-        <v>-0.006156770821274719</v>
+        <v>0.0007712234640952651</v>
       </c>
       <c r="D44">
-        <v>-0.02373476833690832</v>
+        <v>-0.02034329147795126</v>
       </c>
       <c r="E44">
-        <v>0.05684171173796769</v>
+        <v>-0.001602681816790776</v>
       </c>
       <c r="F44">
-        <v>-0.1946136927711052</v>
+        <v>0.004981482775615592</v>
       </c>
       <c r="G44">
-        <v>-0.162404744389275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08606337681119003</v>
+      </c>
+      <c r="H44">
+        <v>0.01695399195295742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01671982975789493</v>
+        <v>-0.02089680761157714</v>
       </c>
       <c r="C46">
-        <v>-0.02309396732485721</v>
+        <v>0.0008436109634582577</v>
       </c>
       <c r="D46">
-        <v>-0.02118282997463097</v>
+        <v>-0.004027711947453538</v>
       </c>
       <c r="E46">
-        <v>0.06311559959566646</v>
+        <v>0.00148405963479949</v>
       </c>
       <c r="F46">
-        <v>-0.07305806350780776</v>
+        <v>0.03237108898641012</v>
       </c>
       <c r="G46">
-        <v>-0.04374681388356703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05400056312766431</v>
+      </c>
+      <c r="H46">
+        <v>-0.01240319180488818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09364630765311906</v>
+        <v>-0.07287412463048171</v>
       </c>
       <c r="C47">
-        <v>-0.03589028488520578</v>
+        <v>0.03947702950462079</v>
       </c>
       <c r="D47">
-        <v>-0.02460221304233236</v>
+        <v>-0.02823058063081797</v>
       </c>
       <c r="E47">
-        <v>0.04741461782737587</v>
+        <v>0.004651594840210751</v>
       </c>
       <c r="F47">
-        <v>-0.007160742276961388</v>
+        <v>0.03370526992996821</v>
       </c>
       <c r="G47">
-        <v>-0.09446894417276218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01107361238046622</v>
+      </c>
+      <c r="H47">
+        <v>-0.03101922453083449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.00973853892566099</v>
+        <v>-0.01774356566460749</v>
       </c>
       <c r="C48">
-        <v>-0.008010383202286073</v>
+        <v>0.007786933046936337</v>
       </c>
       <c r="D48">
-        <v>-0.01386519137409902</v>
+        <v>-0.002994838050699918</v>
       </c>
       <c r="E48">
-        <v>0.03771139577996923</v>
+        <v>0.001338014717979786</v>
       </c>
       <c r="F48">
-        <v>-0.04236479946086773</v>
+        <v>0.01240088156891944</v>
       </c>
       <c r="G48">
-        <v>-0.009272162626721597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02535304911545451</v>
+      </c>
+      <c r="H48">
+        <v>0.0005560107929865917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08536975520937863</v>
+        <v>-0.06583335441639551</v>
       </c>
       <c r="C50">
-        <v>-0.01895163068211283</v>
+        <v>0.03276985283047893</v>
       </c>
       <c r="D50">
-        <v>-0.03680129462889905</v>
+        <v>-0.03940941771477646</v>
       </c>
       <c r="E50">
-        <v>0.05919459776119327</v>
+        <v>-0.01034062158455633</v>
       </c>
       <c r="F50">
-        <v>-0.02916507367353066</v>
+        <v>0.02988637856242438</v>
       </c>
       <c r="G50">
-        <v>-0.01889212680692231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02066897507792145</v>
+      </c>
+      <c r="H50">
+        <v>-0.02610742148450141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04004850835895851</v>
+        <v>-0.0263749644146666</v>
       </c>
       <c r="C51">
-        <v>0.00156178881859522</v>
+        <v>0.003953121882049733</v>
       </c>
       <c r="D51">
-        <v>-0.04438960918585578</v>
+        <v>0.00519995301225991</v>
       </c>
       <c r="E51">
-        <v>0.010204538691197</v>
+        <v>0.01350280471890549</v>
       </c>
       <c r="F51">
-        <v>-0.1478675529404667</v>
+        <v>-0.01791490066656536</v>
       </c>
       <c r="G51">
-        <v>-0.05897415272503036</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07520909437992651</v>
+      </c>
+      <c r="H51">
+        <v>0.01961402380453379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1007512835769072</v>
+        <v>-0.09277175485830383</v>
       </c>
       <c r="C53">
-        <v>-0.05036622367815216</v>
+        <v>0.04950189584737558</v>
       </c>
       <c r="D53">
-        <v>-0.04257189134739219</v>
+        <v>-0.05422071775899473</v>
       </c>
       <c r="E53">
-        <v>0.05491440471732051</v>
+        <v>0.001793924533572434</v>
       </c>
       <c r="F53">
-        <v>0.0551767587391743</v>
+        <v>0.06806108791026255</v>
       </c>
       <c r="G53">
-        <v>-0.04199667042060472</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05690033517614001</v>
+      </c>
+      <c r="H53">
+        <v>-0.03639613477881776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01969077407124655</v>
+        <v>-0.02290807602277186</v>
       </c>
       <c r="C54">
-        <v>-0.03881998179253276</v>
+        <v>0.01593488099110165</v>
       </c>
       <c r="D54">
-        <v>-0.0006138912895465336</v>
+        <v>0.02470878026979723</v>
       </c>
       <c r="E54">
-        <v>0.02617077867524804</v>
+        <v>-0.003103478213663412</v>
       </c>
       <c r="F54">
-        <v>-0.08090688441180394</v>
+        <v>0.01032560629081669</v>
       </c>
       <c r="G54">
-        <v>-0.06544973369666482</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03959658149517117</v>
+      </c>
+      <c r="H54">
+        <v>-0.01733725875839672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0984246234071387</v>
+        <v>-0.0803285223988411</v>
       </c>
       <c r="C55">
-        <v>-0.0357406468713949</v>
+        <v>0.04371201717850133</v>
       </c>
       <c r="D55">
-        <v>0.0005903663661012785</v>
+        <v>-0.05300280503235046</v>
       </c>
       <c r="E55">
-        <v>0.06070790273306495</v>
+        <v>-0.01037751675057738</v>
       </c>
       <c r="F55">
-        <v>0.04245295503080367</v>
+        <v>0.0567797015943152</v>
       </c>
       <c r="G55">
-        <v>-0.05637213287242663</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03255443515460155</v>
+      </c>
+      <c r="H55">
+        <v>-0.04794724011840779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1383472457907418</v>
+        <v>-0.1234752101943917</v>
       </c>
       <c r="C56">
-        <v>-0.07791821142022719</v>
+        <v>0.07246884457144784</v>
       </c>
       <c r="D56">
-        <v>-0.02959599686200528</v>
+        <v>-0.07298549804652375</v>
       </c>
       <c r="E56">
-        <v>0.076169751281238</v>
+        <v>-0.003319368273245758</v>
       </c>
       <c r="F56">
-        <v>0.1595785215756118</v>
+        <v>0.09735891495287224</v>
       </c>
       <c r="G56">
-        <v>-0.02889547475934028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.100384176000975</v>
+      </c>
+      <c r="H56">
+        <v>-0.02961304340894115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04469566852533873</v>
+        <v>-0.04671220158073434</v>
       </c>
       <c r="C57">
-        <v>-0.01822423158489855</v>
+        <v>-0.001791831818147914</v>
       </c>
       <c r="D57">
-        <v>-0.02954729319602257</v>
+        <v>-0.01672095601784733</v>
       </c>
       <c r="E57">
-        <v>0.01610255705851749</v>
+        <v>0.01052616992311654</v>
       </c>
       <c r="F57">
-        <v>-0.06766091766760737</v>
+        <v>0.02850593539129829</v>
       </c>
       <c r="G57">
-        <v>-0.02088344525776109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05871260063348176</v>
+      </c>
+      <c r="H57">
+        <v>0.01271560251528299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.200112455322393</v>
+        <v>-0.1503354757589822</v>
       </c>
       <c r="C58">
-        <v>-0.06797026339125915</v>
+        <v>0.06380357208993313</v>
       </c>
       <c r="D58">
-        <v>-0.1136216447931165</v>
+        <v>-0.1088227035428469</v>
       </c>
       <c r="E58">
-        <v>0.2201697814050131</v>
+        <v>0.1179114900132305</v>
       </c>
       <c r="F58">
-        <v>-0.2998543852081573</v>
+        <v>0.0570221566224049</v>
       </c>
       <c r="G58">
-        <v>0.3763379350459077</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6999740672202132</v>
+      </c>
+      <c r="H58">
+        <v>-0.5349766903737836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08275603087438879</v>
+        <v>-0.1360514246272732</v>
       </c>
       <c r="C59">
-        <v>-0.08875731028005922</v>
+        <v>0.05669225470339234</v>
       </c>
       <c r="D59">
-        <v>0.03189259611907897</v>
+        <v>0.2114150985830829</v>
       </c>
       <c r="E59">
-        <v>-0.1524480263797625</v>
+        <v>0.04250211994515003</v>
       </c>
       <c r="F59">
-        <v>-0.05872468645252939</v>
+        <v>-0.09175622957103502</v>
       </c>
       <c r="G59">
-        <v>0.001518800133148026</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01396756555887564</v>
+      </c>
+      <c r="H59">
+        <v>0.02321915036351276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1669702692386442</v>
+        <v>-0.1692898869764941</v>
       </c>
       <c r="C60">
-        <v>-0.07013126590215764</v>
+        <v>0.06066936988226717</v>
       </c>
       <c r="D60">
-        <v>-0.06622644749140924</v>
+        <v>-0.009292710593435416</v>
       </c>
       <c r="E60">
-        <v>0.02853848276596085</v>
+        <v>0.05347451544398199</v>
       </c>
       <c r="F60">
-        <v>-0.07641937240516528</v>
+        <v>0.06247845643099403</v>
       </c>
       <c r="G60">
-        <v>0.2815990528065941</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1221668648560832</v>
+      </c>
+      <c r="H60">
+        <v>0.375677519859569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02017656366331587</v>
+        <v>-0.02238033000128548</v>
       </c>
       <c r="C61">
-        <v>-0.01388636231317509</v>
+        <v>0.009456307615141523</v>
       </c>
       <c r="D61">
-        <v>-0.004861301189635067</v>
+        <v>-0.03323536178617747</v>
       </c>
       <c r="E61">
-        <v>0.01741631723231711</v>
+        <v>-0.003402566574730408</v>
       </c>
       <c r="F61">
-        <v>-0.03553868060715732</v>
+        <v>0.03292356066203935</v>
       </c>
       <c r="G61">
-        <v>-0.00314980758377848</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03197984126366293</v>
+      </c>
+      <c r="H61">
+        <v>0.03843928585949465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0169884815213224</v>
+        <v>-0.01458527000679169</v>
       </c>
       <c r="C63">
-        <v>-0.01744348301996081</v>
+        <v>0.0009381002001208024</v>
       </c>
       <c r="D63">
-        <v>-0.01356505207795561</v>
+        <v>-0.004066945918945855</v>
       </c>
       <c r="E63">
-        <v>0.03675641332148922</v>
+        <v>-0.002393667059975206</v>
       </c>
       <c r="F63">
-        <v>-0.0171216477070622</v>
+        <v>0.02185849433824016</v>
       </c>
       <c r="G63">
-        <v>-0.03676687928916601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01468734694726489</v>
+      </c>
+      <c r="H63">
+        <v>-0.01238827083421726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02995666624627537</v>
+        <v>-0.0378787610712023</v>
       </c>
       <c r="C64">
-        <v>-0.02204777547984207</v>
+        <v>0.01442671762934027</v>
       </c>
       <c r="D64">
-        <v>0.01852777191338489</v>
+        <v>-0.03001544446263313</v>
       </c>
       <c r="E64">
-        <v>0.04295257390851428</v>
+        <v>-0.01274343733777347</v>
       </c>
       <c r="F64">
-        <v>-0.02391414099331736</v>
+        <v>0.02746257779482364</v>
       </c>
       <c r="G64">
-        <v>-0.07180959667097037</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01614300543139387</v>
+      </c>
+      <c r="H64">
+        <v>0.02872764886322136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0117492450874004</v>
+        <v>-0.03555062456647923</v>
       </c>
       <c r="C65">
-        <v>-0.0001111135792061173</v>
+        <v>0.0007003649818264</v>
       </c>
       <c r="D65">
-        <v>-0.01023970913027185</v>
+        <v>-0.03874216787879908</v>
       </c>
       <c r="E65">
-        <v>0.00507770254972712</v>
+        <v>-0.006266685898341963</v>
       </c>
       <c r="F65">
-        <v>-0.007771191911865162</v>
+        <v>0.03848798462325955</v>
       </c>
       <c r="G65">
-        <v>0.01948260324766159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003502395647037336</v>
+      </c>
+      <c r="H65">
+        <v>0.06014635367880502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03441540320715944</v>
+        <v>-0.02980084726157078</v>
       </c>
       <c r="C66">
-        <v>-0.02593784271659079</v>
+        <v>0.009936299984903488</v>
       </c>
       <c r="D66">
-        <v>-0.02291116628795536</v>
+        <v>-0.07173125856056581</v>
       </c>
       <c r="E66">
-        <v>0.04475503345449796</v>
+        <v>0.005324818408668842</v>
       </c>
       <c r="F66">
-        <v>-0.03883895720532062</v>
+        <v>0.06586904793978263</v>
       </c>
       <c r="G66">
-        <v>-0.006802967384849676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04385922851721882</v>
+      </c>
+      <c r="H66">
+        <v>0.06263308305498821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02744613259637917</v>
+        <v>-0.03629966508692481</v>
       </c>
       <c r="C67">
-        <v>-0.007967743262346842</v>
+        <v>0.0235042433734714</v>
       </c>
       <c r="D67">
-        <v>0.01487477800292046</v>
+        <v>0.01047010580509425</v>
       </c>
       <c r="E67">
-        <v>-0.03112136351848922</v>
+        <v>-0.002271150566219415</v>
       </c>
       <c r="F67">
-        <v>-0.005864485713092941</v>
+        <v>0.009877910314122634</v>
       </c>
       <c r="G67">
-        <v>-6.87380669073986e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01515244923879722</v>
+      </c>
+      <c r="H67">
+        <v>0.03203344416074162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09158847593638564</v>
+        <v>-0.1389565993475709</v>
       </c>
       <c r="C68">
-        <v>-0.07122424098621313</v>
+        <v>0.03509062837679443</v>
       </c>
       <c r="D68">
-        <v>0.04742976342698509</v>
+        <v>0.1965039732826709</v>
       </c>
       <c r="E68">
-        <v>-0.1725994030340314</v>
+        <v>0.03770269038449899</v>
       </c>
       <c r="F68">
-        <v>-0.03150837071830411</v>
+        <v>-0.1095461826435852</v>
       </c>
       <c r="G68">
-        <v>0.05286885005246929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01451065997615062</v>
+      </c>
+      <c r="H68">
+        <v>-0.03774685181260135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07240873171894524</v>
+        <v>-0.05657590266088798</v>
       </c>
       <c r="C69">
-        <v>-0.03565597070094945</v>
+        <v>0.0354842322247074</v>
       </c>
       <c r="D69">
-        <v>-0.02512482784776052</v>
+        <v>-0.02574703290908801</v>
       </c>
       <c r="E69">
-        <v>0.00843086245146241</v>
+        <v>0.004451090923097261</v>
       </c>
       <c r="F69">
-        <v>-0.02223567630728893</v>
+        <v>0.03212682218640397</v>
       </c>
       <c r="G69">
-        <v>-0.07135577820457055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003627609785732832</v>
+      </c>
+      <c r="H69">
+        <v>-0.01208638067094654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1105991076213006</v>
+        <v>-0.1331035288499514</v>
       </c>
       <c r="C71">
-        <v>-0.07464078064143742</v>
+        <v>0.04291865909036063</v>
       </c>
       <c r="D71">
-        <v>0.02470598560970671</v>
+        <v>0.1842048361947611</v>
       </c>
       <c r="E71">
-        <v>-0.2169364457938085</v>
+        <v>0.03813447176969901</v>
       </c>
       <c r="F71">
-        <v>-0.04636936555764643</v>
+        <v>-0.115868650053165</v>
       </c>
       <c r="G71">
-        <v>-0.002909825017488797</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01254719289091523</v>
+      </c>
+      <c r="H71">
+        <v>-0.02133170209820524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.109372486860085</v>
+        <v>-0.08572001924334163</v>
       </c>
       <c r="C72">
-        <v>-0.1006319619576194</v>
+        <v>0.05407986459252383</v>
       </c>
       <c r="D72">
-        <v>-0.01825237618074187</v>
+        <v>-0.05445962626928156</v>
       </c>
       <c r="E72">
-        <v>0.07075599633491779</v>
+        <v>0.007581903618555035</v>
       </c>
       <c r="F72">
-        <v>-0.08316972991009661</v>
+        <v>0.1098602801754945</v>
       </c>
       <c r="G72">
-        <v>0.163972539292142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09811847171826542</v>
+      </c>
+      <c r="H72">
+        <v>0.1503306453091022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2500744138995917</v>
+        <v>-0.236633038439726</v>
       </c>
       <c r="C73">
-        <v>-0.1022974425812709</v>
+        <v>0.07972770966644581</v>
       </c>
       <c r="D73">
-        <v>-0.06158739845241058</v>
+        <v>-0.03839184594378649</v>
       </c>
       <c r="E73">
-        <v>-0.01155728723685716</v>
+        <v>0.08320072835706799</v>
       </c>
       <c r="F73">
-        <v>-0.1465334673859202</v>
+        <v>0.07704935010674972</v>
       </c>
       <c r="G73">
-        <v>0.4332479955499119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1811224701642771</v>
+      </c>
+      <c r="H73">
+        <v>0.5131236799929819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1215609906706254</v>
+        <v>-0.1113196356350458</v>
       </c>
       <c r="C74">
-        <v>-0.0436772394353126</v>
+        <v>0.06441755955854382</v>
       </c>
       <c r="D74">
-        <v>-0.03422622697632955</v>
+        <v>-0.07370881200595841</v>
       </c>
       <c r="E74">
-        <v>0.03545134749045861</v>
+        <v>0.005507172648838688</v>
       </c>
       <c r="F74">
-        <v>0.1112958236316856</v>
+        <v>0.07915273362163013</v>
       </c>
       <c r="G74">
-        <v>-0.01914394717476442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07706070300968762</v>
+      </c>
+      <c r="H74">
+        <v>-0.008816276534276496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2100664769581786</v>
+        <v>-0.2193407919834714</v>
       </c>
       <c r="C75">
-        <v>-0.1195653428045799</v>
+        <v>0.1294087641136453</v>
       </c>
       <c r="D75">
-        <v>-0.07418463714369597</v>
+        <v>-0.1128586083515418</v>
       </c>
       <c r="E75">
-        <v>0.1021276259292699</v>
+        <v>0.02328186401778053</v>
       </c>
       <c r="F75">
-        <v>0.1739998739299764</v>
+        <v>0.160493801948639</v>
       </c>
       <c r="G75">
-        <v>-0.1009115952776902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1571836146607155</v>
+      </c>
+      <c r="H75">
+        <v>-0.09365062771889282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2510075731007115</v>
+        <v>-0.2026983070018019</v>
       </c>
       <c r="C76">
-        <v>-0.1218343890871574</v>
+        <v>0.1236466163012948</v>
       </c>
       <c r="D76">
-        <v>-0.015885659656388</v>
+        <v>-0.1007866389469646</v>
       </c>
       <c r="E76">
-        <v>0.06395984294586463</v>
+        <v>-0.01738003779360298</v>
       </c>
       <c r="F76">
-        <v>0.1933432912089468</v>
+        <v>0.151807388285416</v>
       </c>
       <c r="G76">
-        <v>-0.0840818640495392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1685453750900997</v>
+      </c>
+      <c r="H76">
+        <v>-0.09524884246567759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1329365224719339</v>
+        <v>-0.07497066389886692</v>
       </c>
       <c r="C77">
-        <v>0.01451364876377394</v>
+        <v>0.01867011175742005</v>
       </c>
       <c r="D77">
-        <v>-0.07680078237372608</v>
+        <v>-0.07428276302883434</v>
       </c>
       <c r="E77">
-        <v>0.1016755368548822</v>
+        <v>0.01358063994260043</v>
       </c>
       <c r="F77">
-        <v>-0.2399053392583572</v>
+        <v>0.00959579597125051</v>
       </c>
       <c r="G77">
-        <v>-0.147716509936527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1240915675266076</v>
+      </c>
+      <c r="H77">
+        <v>-0.06071758300373503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05073717827125408</v>
+        <v>-0.03421873996150828</v>
       </c>
       <c r="C78">
-        <v>-0.01288523838663149</v>
+        <v>0.01317850848581737</v>
       </c>
       <c r="D78">
-        <v>-0.03456969837843379</v>
+        <v>-0.05721064442726703</v>
       </c>
       <c r="E78">
-        <v>0.1042040659077894</v>
+        <v>-0.004887626313357173</v>
       </c>
       <c r="F78">
-        <v>-0.0396268291064889</v>
+        <v>0.05046746641529707</v>
       </c>
       <c r="G78">
-        <v>-0.0572744364303767</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05189378635121789</v>
+      </c>
+      <c r="H78">
+        <v>0.03047857946808223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2062644940840145</v>
+        <v>-0.1739072422379022</v>
       </c>
       <c r="C80">
-        <v>0.1330595207573814</v>
+        <v>0.07501548771207449</v>
       </c>
       <c r="D80">
-        <v>0.9222413817644106</v>
+        <v>-0.008266999002020645</v>
       </c>
       <c r="E80">
-        <v>0.2595890382210399</v>
+        <v>-0.9587646621717377</v>
       </c>
       <c r="F80">
-        <v>-0.0377552922414771</v>
+        <v>-0.1342277385276776</v>
       </c>
       <c r="G80">
-        <v>0.02639093500706645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1003950935441544</v>
+      </c>
+      <c r="H80">
+        <v>0.008043423631912636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1492832955480941</v>
+        <v>-0.1485906798162981</v>
       </c>
       <c r="C81">
-        <v>-0.1015855402595163</v>
+        <v>0.08762144258826579</v>
       </c>
       <c r="D81">
-        <v>-0.02403543402832852</v>
+        <v>-0.066081443849732</v>
       </c>
       <c r="E81">
-        <v>0.07289326780969234</v>
+        <v>0.0009058309688864629</v>
       </c>
       <c r="F81">
-        <v>0.1724493324414922</v>
+        <v>0.1113677732220604</v>
       </c>
       <c r="G81">
-        <v>-0.02388590797300955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1020769334570098</v>
+      </c>
+      <c r="H81">
+        <v>-0.0693443498071598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05081048812426661</v>
+        <v>-0.03742600881532615</v>
       </c>
       <c r="C83">
-        <v>0.01127963374569168</v>
+        <v>0.01162253029484572</v>
       </c>
       <c r="D83">
-        <v>-0.04085696054861078</v>
+        <v>-0.02129128548054273</v>
       </c>
       <c r="E83">
-        <v>0.04092367189765385</v>
+        <v>0.01278505319318371</v>
       </c>
       <c r="F83">
-        <v>-0.06797059285073823</v>
+        <v>0.01235930176784537</v>
       </c>
       <c r="G83">
-        <v>-0.05560450462359783</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05413819587154144</v>
+      </c>
+      <c r="H83">
+        <v>0.0169604098372516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2193973461301371</v>
+        <v>-0.2058288258794273</v>
       </c>
       <c r="C85">
-        <v>-0.1031418897980745</v>
+        <v>0.1087258580314904</v>
       </c>
       <c r="D85">
-        <v>-0.04586228068969326</v>
+        <v>-0.1186984360084161</v>
       </c>
       <c r="E85">
-        <v>0.06860021990276774</v>
+        <v>0.01231700542889233</v>
       </c>
       <c r="F85">
-        <v>0.1899534203299639</v>
+        <v>0.1432253587003509</v>
       </c>
       <c r="G85">
-        <v>-0.09727737431582925</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1626323320114052</v>
+      </c>
+      <c r="H85">
+        <v>-0.06588213388814541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004427943661604889</v>
+        <v>-0.01278305549718261</v>
       </c>
       <c r="C86">
-        <v>0.009452198737044603</v>
+        <v>-0.001063546635515583</v>
       </c>
       <c r="D86">
-        <v>-0.004974782966745537</v>
+        <v>-0.005874690101656264</v>
       </c>
       <c r="E86">
-        <v>0.0534029069045824</v>
+        <v>0.009119871351363461</v>
       </c>
       <c r="F86">
-        <v>-0.07446874376501238</v>
+        <v>-0.0009553639852445025</v>
       </c>
       <c r="G86">
-        <v>-0.03366563417056855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0795016094565789</v>
+      </c>
+      <c r="H86">
+        <v>0.04260345701280074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03098755681019522</v>
+        <v>-0.02692564800702872</v>
       </c>
       <c r="C87">
-        <v>-0.007688904458929811</v>
+        <v>0.005770553408427683</v>
       </c>
       <c r="D87">
-        <v>-0.0145841034635816</v>
+        <v>-0.02708145016521092</v>
       </c>
       <c r="E87">
-        <v>0.0393306370562752</v>
+        <v>0.000647539834045164</v>
       </c>
       <c r="F87">
-        <v>-0.0728909658499753</v>
+        <v>0.02664148725165257</v>
       </c>
       <c r="G87">
-        <v>0.01356930110515777</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08947836085228515</v>
+      </c>
+      <c r="H87">
+        <v>0.03063360262492525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008979640809276877</v>
+        <v>-0.03785504623260311</v>
       </c>
       <c r="C88">
-        <v>-0.01763508093515096</v>
+        <v>-0.006067058684890762</v>
       </c>
       <c r="D88">
-        <v>0.02296779486796967</v>
+        <v>0.006277622494566644</v>
       </c>
       <c r="E88">
-        <v>-0.002583564303623353</v>
+        <v>-0.007445282197052465</v>
       </c>
       <c r="F88">
-        <v>-0.03157500620287953</v>
+        <v>0.01177966565263088</v>
       </c>
       <c r="G88">
-        <v>-0.08787558289590422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004546272256315655</v>
+      </c>
+      <c r="H88">
+        <v>0.008223791456665058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1361244143739899</v>
+        <v>-0.2162311104723514</v>
       </c>
       <c r="C89">
-        <v>-0.0951485063688093</v>
+        <v>0.06602519249232566</v>
       </c>
       <c r="D89">
-        <v>0.03519245867445318</v>
+        <v>0.31763724716977</v>
       </c>
       <c r="E89">
-        <v>-0.3056233089633039</v>
+        <v>0.08177548483878568</v>
       </c>
       <c r="F89">
-        <v>-0.1068957305551338</v>
+        <v>-0.1663069197881484</v>
       </c>
       <c r="G89">
-        <v>-0.06198939734031126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.008211312913975021</v>
+      </c>
+      <c r="H89">
+        <v>-0.02682652286376752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1230575641642727</v>
+        <v>-0.1709186082559664</v>
       </c>
       <c r="C90">
-        <v>-0.1009922604633173</v>
+        <v>0.05310840467392961</v>
       </c>
       <c r="D90">
-        <v>0.08505261451861773</v>
+        <v>0.2799205383351863</v>
       </c>
       <c r="E90">
-        <v>-0.2742252628546586</v>
+        <v>0.05323714891915558</v>
       </c>
       <c r="F90">
-        <v>-0.06196826243358963</v>
+        <v>-0.1575882170134507</v>
       </c>
       <c r="G90">
-        <v>0.01009091217393902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0395568110269828</v>
+      </c>
+      <c r="H90">
+        <v>-0.04370244588002369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2843457137803285</v>
+        <v>-0.2249508028101844</v>
       </c>
       <c r="C91">
-        <v>-0.09855970440752559</v>
+        <v>0.1305560782684736</v>
       </c>
       <c r="D91">
-        <v>-0.06472941190494186</v>
+        <v>-0.1201456087302035</v>
       </c>
       <c r="E91">
-        <v>0.06160858041967067</v>
+        <v>0.01489172227674812</v>
       </c>
       <c r="F91">
-        <v>0.256049431851529</v>
+        <v>0.1496016764772432</v>
       </c>
       <c r="G91">
-        <v>-0.05577993841568301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2058314687990969</v>
+      </c>
+      <c r="H91">
+        <v>-0.1278515322149794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1945543248143833</v>
+        <v>-0.2262289339501912</v>
       </c>
       <c r="C92">
-        <v>-0.07305311169699036</v>
+        <v>0.1247788261196287</v>
       </c>
       <c r="D92">
-        <v>0.1135998821131147</v>
+        <v>0.2244672993699522</v>
       </c>
       <c r="E92">
-        <v>-0.4535792778739268</v>
+        <v>0.03797488381018962</v>
       </c>
       <c r="F92">
-        <v>-0.1488160189078205</v>
+        <v>-0.1376298016741768</v>
       </c>
       <c r="G92">
-        <v>-0.2424588242063387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0463022100851437</v>
+      </c>
+      <c r="H92">
+        <v>-0.1443923699422021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1372116552262767</v>
+        <v>-0.1958082427417309</v>
       </c>
       <c r="C93">
-        <v>-0.08431786597776907</v>
+        <v>0.06777783586736619</v>
       </c>
       <c r="D93">
-        <v>0.0963933164728198</v>
+        <v>0.2956054538277082</v>
       </c>
       <c r="E93">
-        <v>-0.3866761633122354</v>
+        <v>0.0710486639296545</v>
       </c>
       <c r="F93">
-        <v>-0.01214732727787334</v>
+        <v>-0.1923587095921583</v>
       </c>
       <c r="G93">
-        <v>0.02698298617996538</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04880258234418028</v>
+      </c>
+      <c r="H93">
+        <v>0.01473397963006158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2557823311421871</v>
+        <v>-0.2462490356199234</v>
       </c>
       <c r="C94">
-        <v>-0.1341030325694345</v>
+        <v>0.1228147082425171</v>
       </c>
       <c r="D94">
-        <v>-0.03327636451344869</v>
+        <v>-0.09490330787111616</v>
       </c>
       <c r="E94">
-        <v>0.07268048860097312</v>
+        <v>0.03176274389156954</v>
       </c>
       <c r="F94">
-        <v>0.3098698794364497</v>
+        <v>0.1692264346195163</v>
       </c>
       <c r="G94">
-        <v>-0.01047444416908277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2145292089206843</v>
+      </c>
+      <c r="H94">
+        <v>-0.14093996802918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07549072050121802</v>
+        <v>-0.06404978833701429</v>
       </c>
       <c r="C95">
-        <v>-0.01418098294985024</v>
+        <v>0.03989569564241647</v>
       </c>
       <c r="D95">
-        <v>-0.06633095834365274</v>
+        <v>-0.0748191324219175</v>
       </c>
       <c r="E95">
-        <v>0.09414199539438722</v>
+        <v>0.07131015169712195</v>
       </c>
       <c r="F95">
-        <v>-0.02959793815845959</v>
+        <v>0.03470255830832848</v>
       </c>
       <c r="G95">
-        <v>-0.3851404688218146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05779540965117989</v>
+      </c>
+      <c r="H95">
+        <v>0.00997231934396281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1899713298891796</v>
+        <v>-0.1723010212076449</v>
       </c>
       <c r="C98">
-        <v>-0.04995962867802462</v>
+        <v>0.090555154725091</v>
       </c>
       <c r="D98">
-        <v>-0.04808209237685265</v>
+        <v>-0.02823428214772283</v>
       </c>
       <c r="E98">
-        <v>-0.04565495428845</v>
+        <v>0.056631763794284</v>
       </c>
       <c r="F98">
-        <v>-0.049089067397562</v>
+        <v>0.03076147677614392</v>
       </c>
       <c r="G98">
-        <v>0.277935891631548</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1546889547152759</v>
+      </c>
+      <c r="H98">
+        <v>0.3703183083058003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0004712443835471694</v>
+        <v>-0.01287931265907786</v>
       </c>
       <c r="C101">
-        <v>-0.03023779744069747</v>
+        <v>0.001526727028613983</v>
       </c>
       <c r="D101">
-        <v>-0.01020194638820754</v>
+        <v>-0.001616279022350864</v>
       </c>
       <c r="E101">
-        <v>0.1195203959105489</v>
+        <v>-0.006157975295203729</v>
       </c>
       <c r="F101">
-        <v>-0.1786318016730051</v>
+        <v>0.03496497640735569</v>
       </c>
       <c r="G101">
-        <v>0.04263845820546565</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09705306599364474</v>
+      </c>
+      <c r="H101">
+        <v>-0.07051665490550769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09061252294441829</v>
+        <v>-0.1039534540367907</v>
       </c>
       <c r="C102">
-        <v>-0.03204165298055091</v>
+        <v>0.04730594475531451</v>
       </c>
       <c r="D102">
-        <v>-0.0151563951443738</v>
+        <v>-0.06060066427370592</v>
       </c>
       <c r="E102">
-        <v>0.07619293796142003</v>
+        <v>-0.0004638153566588703</v>
       </c>
       <c r="F102">
-        <v>0.1294003407968072</v>
+        <v>0.07623131956162255</v>
       </c>
       <c r="G102">
-        <v>-0.09465256472629117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09292243662724031</v>
+      </c>
+      <c r="H102">
+        <v>-0.05577417188045795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02450861302337095</v>
+        <v>-0.02167798874503438</v>
       </c>
       <c r="C103">
-        <v>-0.01339004907329126</v>
+        <v>0.01104358352219661</v>
       </c>
       <c r="D103">
-        <v>-0.01080428804696132</v>
+        <v>-0.01227633911953557</v>
       </c>
       <c r="E103">
-        <v>0.003556906517467635</v>
+        <v>-0.005589676001110703</v>
       </c>
       <c r="F103">
-        <v>0.02354788659371814</v>
+        <v>0.01829139734686964</v>
       </c>
       <c r="G103">
-        <v>-0.03817522756412347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.008585409494623632</v>
+      </c>
+      <c r="H103">
+        <v>-0.009357934377141318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3816617018345302</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9018143577001529</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06358656472980488</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02728257525250035</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1581726650660577</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03650383105868379</v>
+      </c>
+      <c r="H104">
+        <v>-0.0321898896312453</v>
       </c>
     </row>
   </sheetData>
